--- a/driver_명칭변경v3.xlsx
+++ b/driver_명칭변경v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Deploy\CloudLvl2_Assingment\personnel_assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CCDE27-FFBB-44DA-AB69-BB16F2F9FDAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A081F4F-4DD2-4CF2-89E6-6642ADABA8C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="3240" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2148" yWindow="1956" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1182,7 +1182,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
